--- a/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
+++ b/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="166">
   <si>
     <t>主模块</t>
   </si>
@@ -378,6 +378,215 @@
   <si>
     <t>李明成
 于英俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关系</t>
+  </si>
+  <si>
+    <t>业务跟进</t>
+  </si>
+  <si>
+    <t>对客户的业务拜访等信息</t>
+  </si>
+  <si>
+    <t>非车险保单管理</t>
+  </si>
+  <si>
+    <t>保单录入</t>
+  </si>
+  <si>
+    <t>保单录入、保单再保、保单共保</t>
+  </si>
+  <si>
+    <t>保单批改</t>
+  </si>
+  <si>
+    <t>对保单进行批改、批改单保单共保</t>
+  </si>
+  <si>
+    <t>保单审核</t>
+  </si>
+  <si>
+    <t>对录入的保单或批改单进行审核和反审核</t>
+  </si>
+  <si>
+    <t>车险保单管理</t>
+  </si>
+  <si>
+    <t>询价单录入</t>
+  </si>
+  <si>
+    <t>询价单审核</t>
+  </si>
+  <si>
+    <t>对录入的询价单进行审核和反审核</t>
+  </si>
+  <si>
+    <t>询价单查询</t>
+  </si>
+  <si>
+    <t>对录入的保单进行审核和反审核</t>
+  </si>
+  <si>
+    <t>客户理赔</t>
+  </si>
+  <si>
+    <t>理赔登记</t>
+  </si>
+  <si>
+    <t>记录理赔信息</t>
+  </si>
+  <si>
+    <t>理赔资料管理</t>
+  </si>
+  <si>
+    <t>设置各保险公司理赔各险种理赔所需资料</t>
+  </si>
+  <si>
+    <t>业务咨询</t>
+  </si>
+  <si>
+    <t>业务咨询管理</t>
+  </si>
+  <si>
+    <t>收付结算</t>
+  </si>
+  <si>
+    <t>自动生成保费通知书</t>
+  </si>
+  <si>
+    <t>录入保费收入信息、生成代收（直付）保费入账单</t>
+  </si>
+  <si>
+    <t>录入保费解付信息、代收保费支付单</t>
+  </si>
+  <si>
+    <t>经纪费开票</t>
+  </si>
+  <si>
+    <t>解付保费后开票给保险公司、开票通知单</t>
+  </si>
+  <si>
+    <t>经纪费结算</t>
+  </si>
+  <si>
+    <t>录入经纪费收入信息、经纪费入账单</t>
+  </si>
+  <si>
+    <t>产品设置</t>
+  </si>
+  <si>
+    <t>设置保险公司信息</t>
+  </si>
+  <si>
+    <t>设置保险公司的分支机构信息</t>
+  </si>
+  <si>
+    <t>组织设置</t>
+  </si>
+  <si>
+    <t>员工管理</t>
+  </si>
+  <si>
+    <t>设置员工信息</t>
+  </si>
+  <si>
+    <t>设置组织机构</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>设置组织结构的职位和员工的权限</t>
+  </si>
+  <si>
+    <t>信息中心</t>
+  </si>
+  <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>系统日志</t>
+  </si>
+  <si>
+    <t>记录所有系统中的操作记录</t>
+  </si>
+  <si>
+    <t>统计报表</t>
+  </si>
+  <si>
+    <t>按不同的口径进行统计业绩、如业务员、保险公司、险种等</t>
+  </si>
+  <si>
+    <t>理赔报表</t>
+  </si>
+  <si>
+    <t>生成理赔统计报表</t>
+  </si>
+  <si>
+    <t>常规报表</t>
+  </si>
+  <si>
+    <t>生成预设的各种常规报表，保监会报表、公司统计报表等</t>
+  </si>
+  <si>
+    <t>预算管理</t>
+  </si>
+  <si>
+    <t>预算数据</t>
+  </si>
+  <si>
+    <t>现有预算数据的导入，签单预算和实收预算</t>
+  </si>
+  <si>
+    <t>预算分析报表</t>
+  </si>
+  <si>
+    <t>生成预算和实际完成的各种分析报表</t>
+  </si>
+  <si>
+    <t>综合查询</t>
+  </si>
+  <si>
+    <t>综合信息查询</t>
+  </si>
+  <si>
+    <t>按不同条件任意查询各种信息</t>
+  </si>
+  <si>
+    <t>提醒管理</t>
+  </si>
+  <si>
+    <t>续保提醒、客户收费提醒、生日祝福等提醒功能</t>
+  </si>
+  <si>
+    <t>于英俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨成春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨成春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">李明成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统所有的下拉框式编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,8 +636,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,8 +676,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -532,13 +773,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,29 +868,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -608,23 +937,107 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,550 +1333,1230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="72.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="12" thickBot="1">
+      <c r="A2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="12" thickBot="1">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:4" ht="12" thickBot="1">
+      <c r="A4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" thickBot="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="1:4" ht="12" thickBot="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="49"/>
+    </row>
+    <row r="7" spans="1:4" ht="12" thickBot="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="49"/>
+    </row>
+    <row r="8" spans="1:4" ht="12" thickBot="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="49"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A9" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" thickBot="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="60"/>
+    </row>
+    <row r="11" spans="1:4" ht="12" thickBot="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:4" ht="12" thickBot="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:4" ht="12" thickBot="1">
+      <c r="A13" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="60"/>
+    </row>
+    <row r="14" spans="1:4" ht="12" thickBot="1">
+      <c r="A14" s="35"/>
+      <c r="B14" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="60"/>
+    </row>
+    <row r="15" spans="1:4" ht="12" thickBot="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:4" ht="12" thickBot="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="60"/>
+    </row>
+    <row r="17" spans="1:4" ht="12" thickBot="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="60"/>
+    </row>
+    <row r="18" spans="1:4" ht="12" thickBot="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="60"/>
+    </row>
+    <row r="19" spans="1:4" ht="12" thickBot="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="60"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A20" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12" thickBot="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" spans="1:4" ht="12" thickBot="1">
+      <c r="A22" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="52"/>
+    </row>
+    <row r="23" spans="1:4" ht="12" thickBot="1">
+      <c r="A23" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="23.25" thickBot="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="58"/>
+    </row>
+    <row r="25" spans="1:4" ht="12" thickBot="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="58"/>
+    </row>
+    <row r="26" spans="1:4" ht="12" thickBot="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="58"/>
+    </row>
+    <row r="27" spans="1:4" ht="12" thickBot="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="58"/>
+    </row>
+    <row r="28" spans="1:4" ht="12" thickBot="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="59"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A29" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12" thickBot="1">
+      <c r="A30" s="35"/>
+      <c r="B30" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="51"/>
+    </row>
+    <row r="31" spans="1:4" ht="12" thickBot="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="51"/>
+    </row>
+    <row r="32" spans="1:4" ht="12" thickBot="1">
+      <c r="A32" s="37"/>
+      <c r="B32" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="52"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A33" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="12" thickBot="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="58"/>
+    </row>
+    <row r="35" spans="1:4" ht="12" thickBot="1">
+      <c r="A35" s="35"/>
+      <c r="B35" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="58"/>
+    </row>
+    <row r="36" spans="1:4" ht="12" thickBot="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="59"/>
+    </row>
+    <row r="37" spans="1:4" ht="12" thickBot="1">
+      <c r="A37" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A38" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12" thickBot="1">
+      <c r="A39" s="35"/>
+      <c r="B39" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="49"/>
+    </row>
+    <row r="40" spans="1:4" ht="12" thickBot="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="49"/>
+    </row>
+    <row r="41" spans="1:4" ht="23.25" thickBot="1">
+      <c r="A41" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="12" thickBot="1">
+      <c r="A42" s="38"/>
+      <c r="B42" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="1:4" ht="12" thickBot="1">
+      <c r="A43" s="38"/>
+      <c r="B43" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:4" ht="23.25" thickBot="1">
+      <c r="A44" s="40"/>
+      <c r="B44" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="47"/>
+    </row>
+    <row r="45" spans="1:4" ht="12" thickBot="1">
+      <c r="A45" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12" thickBot="1">
+      <c r="A46" s="42"/>
+      <c r="B46" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="12" thickBot="1">
+      <c r="A47" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="23.25" thickBot="1">
+      <c r="A48" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D74" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="23"/>
-      <c r="B5" s="3" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="44"/>
+      <c r="B75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="3" t="s">
+      <c r="D75" s="23"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="44"/>
+      <c r="B76" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="3" t="s">
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="44"/>
+      <c r="B77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="3" t="s">
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="44"/>
+      <c r="B78" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="3" t="s">
+      <c r="D78" s="23"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="45"/>
+      <c r="B79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="23" t="s">
+      <c r="D79" s="23"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D80" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="23"/>
-      <c r="B11" s="3" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="44"/>
+      <c r="B81" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="23"/>
-      <c r="B12" s="3" t="s">
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="44"/>
+      <c r="B82" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="23"/>
-      <c r="B13" s="3" t="s">
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="45"/>
+      <c r="B83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="23" t="s">
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="23"/>
-      <c r="B15" s="3" t="s">
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="44"/>
+      <c r="B85" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="3" t="s">
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="44"/>
+      <c r="B86" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="3" t="s">
+      <c r="D86" s="25"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="45"/>
+      <c r="B87" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="23" t="s">
+      <c r="D87" s="26"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D88" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="3" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="45"/>
+      <c r="B89" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="D89" s="23"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="23" t="s">
+      <c r="D90" s="23"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D91" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="23"/>
-      <c r="B22" s="3" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="44"/>
+      <c r="B92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="23"/>
-      <c r="B23" s="3" t="s">
+      <c r="D92" s="22"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="44"/>
+      <c r="B93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="23"/>
-      <c r="B24" s="3" t="s">
+      <c r="D93" s="22"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="44"/>
+      <c r="B94" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="3" t="s">
+      <c r="D94" s="22"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="44"/>
+      <c r="B95" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="3" t="s">
+      <c r="D95" s="22"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="45"/>
+      <c r="B96" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="23" t="s">
+      <c r="D96" s="22"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D97" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="23"/>
-      <c r="B28" s="3" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="44"/>
+      <c r="B98" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="23"/>
-      <c r="B29" s="3" t="s">
+      <c r="D98" s="23"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="44"/>
+      <c r="B99" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="3" t="s">
+      <c r="D99" s="23"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="45"/>
+      <c r="B100" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="23" t="s">
+      <c r="D100" s="23"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B101" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C101" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D101" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="3" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="44"/>
+      <c r="B102" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="23"/>
-      <c r="B33" s="3" t="s">
+      <c r="D102" s="22"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="44"/>
+      <c r="B103" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="23"/>
-      <c r="B34" s="3" t="s">
+      <c r="D103" s="22"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="45"/>
+      <c r="B104" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
+      <c r="D104" s="22"/>
+    </row>
+    <row r="105" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A105" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D105" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E105" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="23" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B106" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C106" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="23"/>
-      <c r="B37" s="5" t="s">
+      <c r="D106" s="19"/>
+      <c r="E106" s="21"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="44"/>
+      <c r="B107" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C107" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="23"/>
-      <c r="B38" s="5" t="s">
+      <c r="D107" s="19"/>
+      <c r="E107" s="21"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="44"/>
+      <c r="B108" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C108" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="23"/>
-      <c r="B39" s="5" t="s">
+      <c r="D108" s="19"/>
+      <c r="E108" s="21"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="44"/>
+      <c r="B109" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C109" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="23"/>
-      <c r="B40" s="3" t="s">
+      <c r="D109" s="19"/>
+      <c r="E109" s="21"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="44"/>
+      <c r="B110" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="23"/>
-      <c r="B41" s="3" t="s">
+      <c r="D110" s="19"/>
+      <c r="E110" s="21"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="45"/>
+      <c r="B111" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="4" t="s">
+      <c r="D111" s="19"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="27" t="s">
+      <c r="D112" s="20"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D113" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="28"/>
-      <c r="B44" s="3" t="s">
+    <row r="114" spans="1:4">
+      <c r="A114" s="15"/>
+      <c r="B114" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="25"/>
-    </row>
-    <row r="45" spans="1:5" ht="33.75">
-      <c r="A45" s="9" t="s">
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="1:4" ht="33.75">
+      <c r="A115" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" ht="45">
-      <c r="A46" s="10" t="s">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="15"/>
+    </row>
+    <row r="116" spans="1:4" ht="45">
+      <c r="A116" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
+      <c r="B116" s="12"/>
+      <c r="C116" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D116" s="8" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A43:A44"/>
+  <mergeCells count="38">
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D9:D19"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="D105:D112"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="D80:D87"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A113:A114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
+++ b/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="166">
   <si>
     <t>主模块</t>
   </si>
@@ -895,6 +895,138 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,140 +1036,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1350,538 +1350,534 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="72.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="12" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" ht="12" thickBot="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" thickBot="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" thickBot="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="12" thickBot="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="12" thickBot="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="49"/>
-    </row>
-    <row r="8" spans="1:4" ht="12" thickBot="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="49"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A9" s="36" t="s">
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A8" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B8" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D8" s="34" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" thickBot="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="29" t="s">
+    <row r="9" spans="1:4" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C9" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" ht="12" thickBot="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="12" thickBot="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" ht="12" thickBot="1">
+      <c r="A12" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" ht="12" thickBot="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" ht="12" thickBot="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:4" ht="12" thickBot="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:4" ht="12" thickBot="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" ht="12" thickBot="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="1:4" ht="12" thickBot="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="29" t="s">
+      <c r="C17" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" ht="12" thickBot="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="60"/>
-    </row>
-    <row r="13" spans="1:4" ht="12" thickBot="1">
-      <c r="A13" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="60"/>
-    </row>
-    <row r="14" spans="1:4" ht="12" thickBot="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="60"/>
-    </row>
-    <row r="15" spans="1:4" ht="12" thickBot="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="60"/>
-    </row>
-    <row r="16" spans="1:4" ht="12" thickBot="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="60"/>
-    </row>
-    <row r="17" spans="1:4" ht="12" thickBot="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="60"/>
-    </row>
-    <row r="18" spans="1:4" ht="12" thickBot="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="60"/>
-    </row>
-    <row r="19" spans="1:4" ht="12" thickBot="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="60"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="36" t="s">
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A19" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B19" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C19" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D19" s="29" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="12" thickBot="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="30"/>
+    </row>
     <row r="21" spans="1:4" ht="12" thickBot="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="51"/>
+      <c r="A21" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" ht="12" thickBot="1">
-      <c r="A22" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="52"/>
-    </row>
-    <row r="23" spans="1:4" ht="12" thickBot="1">
-      <c r="A23" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C22" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D22" s="26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="29" t="s">
+    <row r="23" spans="1:4" ht="23.25" thickBot="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C23" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="58"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="12" thickBot="1">
+      <c r="A24" s="36"/>
+      <c r="B24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12" thickBot="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="58"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12" thickBot="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="58"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12" thickBot="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="58"/>
-    </row>
-    <row r="28" spans="1:4" ht="12" thickBot="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="29" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="59"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A29" s="36" t="s">
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A28" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C28" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D28" s="29" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="29" spans="1:4" ht="12" thickBot="1">
+      <c r="A29" s="36"/>
+      <c r="B29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="30"/>
+    </row>
     <row r="30" spans="1:4" ht="12" thickBot="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="51"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4" ht="12" thickBot="1">
-      <c r="A31" s="35"/>
-      <c r="B31" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="51"/>
-    </row>
-    <row r="32" spans="1:4" ht="12" thickBot="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="29" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="52"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="36" t="s">
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A32" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B32" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C32" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D32" s="26" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="12" thickBot="1">
+      <c r="A33" s="36"/>
+      <c r="B33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="27"/>
+    </row>
     <row r="34" spans="1:4" ht="12" thickBot="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="58"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4" ht="12" thickBot="1">
-      <c r="A35" s="35"/>
-      <c r="B35" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="58"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4" ht="12" thickBot="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="59"/>
-    </row>
-    <row r="37" spans="1:4" ht="12" thickBot="1">
-      <c r="A37" s="33" t="s">
+      <c r="A36" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B36" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="53" t="s">
+      <c r="D36" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A38" s="36" t="s">
+    <row r="37" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A37" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B37" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C37" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D37" s="33" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="38" spans="1:4" ht="12" thickBot="1">
+      <c r="A38" s="36"/>
+      <c r="B38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="33"/>
+    </row>
     <row r="39" spans="1:4" ht="12" thickBot="1">
-      <c r="A39" s="35"/>
-      <c r="B39" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="49"/>
-    </row>
-    <row r="40" spans="1:4" ht="12" thickBot="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="29" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C39" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="49"/>
-    </row>
-    <row r="41" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A41" s="39" t="s">
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:4" ht="23.25" thickBot="1">
+      <c r="A40" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C40" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D40" s="32" t="s">
         <v>160</v>
       </c>
     </row>
+    <row r="41" spans="1:4" ht="12" thickBot="1">
+      <c r="A41" s="39"/>
+      <c r="B41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="32"/>
+    </row>
     <row r="42" spans="1:4" ht="12" thickBot="1">
-      <c r="A42" s="38"/>
-      <c r="B42" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="47"/>
-    </row>
-    <row r="43" spans="1:4" ht="12" thickBot="1">
-      <c r="A43" s="38"/>
-      <c r="B43" s="30" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C42" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="47"/>
-    </row>
-    <row r="44" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A44" s="40"/>
-      <c r="B44" s="30" t="s">
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:4" ht="23.25" thickBot="1">
+      <c r="A43" s="40"/>
+      <c r="B43" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C43" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" ht="12" thickBot="1">
+      <c r="A44" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="12" thickBot="1">
-      <c r="A45" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="56" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12" thickBot="1">
+      <c r="A46" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12" thickBot="1">
-      <c r="A46" s="42"/>
-      <c r="B46" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="12" thickBot="1">
-      <c r="A47" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="56" t="s">
+    <row r="47" spans="1:4" ht="23.25" thickBot="1">
+      <c r="A47" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A48" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>159</v>
-      </c>
+    <row r="48" spans="1:4">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9"/>
@@ -2022,541 +2018,535 @@
       <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>87</v>
+      <c r="A73" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="43" t="s">
-        <v>41</v>
-      </c>
+      <c r="A74" s="55"/>
       <c r="B74" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="50"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="55"/>
+      <c r="B75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="50"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="55"/>
+      <c r="B76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="50"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="55"/>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="50"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="56"/>
+      <c r="B78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="50"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="55"/>
+      <c r="B80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="52"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="55"/>
+      <c r="B81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="52"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="56"/>
+      <c r="B82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="52"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="52"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="55"/>
+      <c r="B84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="52"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="55"/>
+      <c r="B85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="52"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="56"/>
+      <c r="B86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="53"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="44"/>
-      <c r="B75" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="23"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="44"/>
-      <c r="B76" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="23"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="44"/>
-      <c r="B77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="23"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="44"/>
-      <c r="B78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="23"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="45"/>
-      <c r="B79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="23"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="44"/>
-      <c r="B81" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="25"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="44"/>
-      <c r="B82" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D82" s="25"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="45"/>
-      <c r="B83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="25"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="25"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="44"/>
-      <c r="B85" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="25"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="44"/>
-      <c r="B86" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" s="25"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="45"/>
-      <c r="B87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="26"/>
-    </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="43" t="s">
-        <v>54</v>
-      </c>
+      <c r="A88" s="56"/>
       <c r="B88" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D88" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="50"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="50"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="55"/>
+      <c r="B91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="49"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="55"/>
+      <c r="B92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="49"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="55"/>
+      <c r="B93" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="49"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="55"/>
+      <c r="B94" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="49"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="56"/>
+      <c r="B95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="49"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="45"/>
-      <c r="B89" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D89" s="23"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="23"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="22" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="55"/>
+      <c r="B97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" s="50"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="55"/>
+      <c r="B98" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="50"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="56"/>
+      <c r="B99" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="50"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="44"/>
-      <c r="B92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="22"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="44"/>
-      <c r="B93" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="22"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="44"/>
-      <c r="B94" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D94" s="22"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="44"/>
-      <c r="B95" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="22"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="45"/>
-      <c r="B96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="22"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" s="23" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="55"/>
+      <c r="B101" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="49"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="55"/>
+      <c r="B102" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="49"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="56"/>
+      <c r="B103" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" s="49"/>
+    </row>
+    <row r="104" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A104" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="45" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="44"/>
-      <c r="B98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" s="23"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="44"/>
-      <c r="B99" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="23"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="45"/>
-      <c r="B100" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100" s="23"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="44"/>
-      <c r="B102" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" s="22"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="44"/>
-      <c r="B103" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D103" s="22"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="45"/>
-      <c r="B104" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D104" s="22"/>
-    </row>
-    <row r="105" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A105" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E105" s="21" t="s">
+      <c r="E104" s="48" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="46"/>
+      <c r="E105" s="48"/>
+    </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="43" t="s">
-        <v>76</v>
-      </c>
+      <c r="A106" s="55"/>
       <c r="B106" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="21"/>
+        <v>80</v>
+      </c>
+      <c r="D106" s="46"/>
+      <c r="E106" s="48"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="44"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="D107" s="46"/>
+      <c r="E107" s="48"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="44"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="D108" s="46"/>
+      <c r="E108" s="48"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="44"/>
-      <c r="B109" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="21"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" s="46"/>
+      <c r="E109" s="48"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="44"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="D110" s="46"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="45"/>
-      <c r="B111" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A111" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D111" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="D111" s="47"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B112" s="3"/>
+      <c r="A112" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C112" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D112" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="D112" s="57" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="13" t="s">
-        <v>85</v>
-      </c>
+      <c r="A113" s="59"/>
       <c r="B113" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="15"/>
-      <c r="B114" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="14"/>
-    </row>
-    <row r="115" spans="1:4" ht="33.75">
-      <c r="A115" s="6" t="s">
+      <c r="D113" s="58"/>
+    </row>
+    <row r="114" spans="1:4" ht="33.75">
+      <c r="A114" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="15"/>
-    </row>
-    <row r="116" spans="1:4" ht="45">
-      <c r="A116" s="7" t="s">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="59"/>
+    </row>
+    <row r="115" spans="1:4" ht="45">
+      <c r="A115" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12" t="s">
+      <c r="B115" s="12"/>
+      <c r="C115" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D115" s="8" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D9:D19"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A112:A113"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D105:D112"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D74:D79"/>
-    <mergeCell ref="D80:D87"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="D104:D111"/>
+    <mergeCell ref="E104:E109"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="D73:D78"/>
+    <mergeCell ref="D79:D86"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="D90:D95"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D18"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D28:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
+++ b/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
@@ -381,9 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户关系</t>
-  </si>
-  <si>
     <t>业务跟进</t>
   </si>
   <si>
@@ -587,6 +584,10 @@
   </si>
   <si>
     <t>管理系统所有的下拉框式编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +935,93 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,84 +1048,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,1220 +1343,1303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="72.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:5" ht="72.75" customHeight="1">
+      <c r="B1" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:4" ht="12" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="12" thickBot="1">
+      <c r="B2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-    </row>
-    <row r="3" spans="1:4" ht="12" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:5" ht="12" thickBot="1">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" thickBot="1">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:5" ht="12" thickBot="1">
+      <c r="A4" s="47">
+        <v>101</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12" thickBot="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="62"/>
+    </row>
+    <row r="6" spans="1:5" ht="12" thickBot="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="12" thickBot="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="62"/>
+    </row>
+    <row r="7" spans="1:5" ht="12" thickBot="1">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="62"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A8" s="47">
+        <v>102</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" ht="12" thickBot="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="35" t="s">
+      <c r="C8" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="E8" s="63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" thickBot="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" spans="1:5" ht="12" thickBot="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="34"/>
-    </row>
-    <row r="10" spans="1:4" ht="12" thickBot="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:4" ht="12" thickBot="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="63"/>
+    </row>
+    <row r="11" spans="1:5" ht="12" thickBot="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:4" ht="12" thickBot="1">
-      <c r="A12" s="35" t="s">
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="63"/>
+    </row>
+    <row r="12" spans="1:5" ht="12" thickBot="1">
+      <c r="A12" s="47">
+        <v>103</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="D12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="63"/>
+    </row>
+    <row r="13" spans="1:5" ht="12" thickBot="1">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:4" ht="12" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="E13" s="63"/>
+    </row>
+    <row r="14" spans="1:5" ht="12" thickBot="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="1:4" ht="12" thickBot="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="16" t="s">
+      <c r="D14" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="63"/>
+    </row>
+    <row r="15" spans="1:5" ht="12" thickBot="1">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="63"/>
+    </row>
+    <row r="16" spans="1:5" ht="12" thickBot="1">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="63"/>
+    </row>
+    <row r="17" spans="1:5" ht="12" thickBot="1">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="34"/>
-    </row>
-    <row r="15" spans="1:4" ht="12" thickBot="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="34"/>
-    </row>
-    <row r="16" spans="1:4" ht="12" thickBot="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="1:4" ht="12" thickBot="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="34"/>
-    </row>
-    <row r="18" spans="1:4" ht="12" thickBot="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="E17" s="63"/>
+    </row>
+    <row r="18" spans="1:5" ht="12" thickBot="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="34"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="35" t="s">
+      <c r="D18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="63"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A19" s="47">
+        <v>104</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="E19" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12" thickBot="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="59"/>
+    </row>
+    <row r="21" spans="1:5" ht="12" thickBot="1">
+      <c r="A21" s="27">
+        <v>105</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="60"/>
+    </row>
+    <row r="22" spans="1:5" ht="12" thickBot="1">
+      <c r="A22" s="47">
+        <v>106</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="56"/>
+    </row>
+    <row r="24" spans="1:5" ht="12" thickBot="1">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="56"/>
+    </row>
+    <row r="25" spans="1:5" ht="12" thickBot="1">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="56"/>
+    </row>
+    <row r="26" spans="1:5" ht="12" thickBot="1">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="56"/>
+    </row>
+    <row r="27" spans="1:5" ht="12" thickBot="1">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="57"/>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A28" s="47">
+        <v>107</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12" thickBot="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" ht="12" thickBot="1">
-      <c r="A21" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4" ht="12" thickBot="1">
-      <c r="A22" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:4" ht="12" thickBot="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="1:4" ht="12" thickBot="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:4" ht="12" thickBot="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:4" ht="12" thickBot="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
+    <row r="29" spans="1:5" ht="12" thickBot="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="E29" s="59"/>
+    </row>
+    <row r="30" spans="1:5" ht="12" thickBot="1">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="59"/>
+    </row>
+    <row r="31" spans="1:5" ht="12" thickBot="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="60"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A32" s="47">
+        <v>108</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12" thickBot="1">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="56"/>
+    </row>
+    <row r="34" spans="1:5" ht="12" thickBot="1">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="56"/>
+    </row>
+    <row r="35" spans="1:5" ht="12" thickBot="1">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="57"/>
+    </row>
+    <row r="36" spans="1:5" ht="12" thickBot="1">
+      <c r="A36" s="26">
+        <v>109</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A37" s="47">
+        <v>110</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12" thickBot="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="30" spans="1:4" ht="12" thickBot="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="30"/>
-    </row>
-    <row r="31" spans="1:4" ht="12" thickBot="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="12" thickBot="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="1:4" ht="12" thickBot="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="1:4" ht="12" thickBot="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="28"/>
-    </row>
-    <row r="36" spans="1:4" ht="12" thickBot="1">
-      <c r="A36" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="23" t="s">
+    <row r="38" spans="1:5" ht="12" thickBot="1">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="62"/>
+    </row>
+    <row r="39" spans="1:5" ht="12" thickBot="1">
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="62"/>
+    </row>
+    <row r="40" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A40" s="50">
+        <v>112</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="61" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="12" thickBot="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="1:4" ht="12" thickBot="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A40" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="15" t="s">
+    <row r="41" spans="1:5" ht="12" thickBot="1">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="61"/>
+    </row>
+    <row r="42" spans="1:5" ht="12" thickBot="1">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D42" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="61"/>
+    </row>
+    <row r="43" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="61"/>
+    </row>
+    <row r="44" spans="1:5" ht="12" thickBot="1">
+      <c r="A44" s="53">
+        <v>113</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12" thickBot="1">
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12" thickBot="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:4" ht="12" thickBot="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A43" s="40"/>
-      <c r="B43" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="1:4" ht="12" thickBot="1">
-      <c r="A44" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="12" thickBot="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="16" t="s">
+    <row r="46" spans="1:5" ht="12" thickBot="1">
+      <c r="A46" s="28">
+        <v>111</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="12" thickBot="1">
-      <c r="A46" s="20" t="s">
+      <c r="C46" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="D46" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="E46" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A47" s="28">
+        <v>114</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A47" s="20" t="s">
+      <c r="C47" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="16" t="s">
+      <c r="E47" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="9"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="9"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="9"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="9"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="9"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="9"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="9"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="2:5">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="9"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="2:5">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="9"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="2:5">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="9"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="9"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="9"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="9"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="9"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="9"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="2:5">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="9"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="2:5">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="9"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="2:5">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="s">
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="54" t="s">
+    <row r="73" spans="2:5">
+      <c r="B73" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="E73" s="43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="55"/>
-      <c r="B74" s="3" t="s">
+    <row r="74" spans="2:5">
+      <c r="B74" s="34"/>
+      <c r="C74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="50"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="55"/>
-      <c r="B75" s="3" t="s">
+      <c r="E74" s="43"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="34"/>
+      <c r="C75" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="50"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="55"/>
-      <c r="B76" s="3" t="s">
+      <c r="E75" s="43"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="34"/>
+      <c r="C76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="50"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="55"/>
-      <c r="B77" s="3" t="s">
+      <c r="E76" s="43"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="34"/>
+      <c r="C77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="50"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="56"/>
-      <c r="B78" s="3" t="s">
+      <c r="E77" s="43"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="35"/>
+      <c r="C78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="50"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="54" t="s">
+      <c r="E78" s="43"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D79" s="51" t="s">
+      <c r="E79" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="55"/>
-      <c r="B80" s="3" t="s">
+    <row r="80" spans="2:5">
+      <c r="B80" s="34"/>
+      <c r="C80" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="52"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="55"/>
-      <c r="B81" s="3" t="s">
+      <c r="E80" s="45"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="34"/>
+      <c r="C81" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="52"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="56"/>
-      <c r="B82" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E81" s="45"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="35"/>
       <c r="C82" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="52"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="54" t="s">
+      <c r="D82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="45"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="52"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="55"/>
-      <c r="B84" s="3" t="s">
+      <c r="E83" s="45"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="34"/>
+      <c r="C84" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="52"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="55"/>
-      <c r="B85" s="3" t="s">
+      <c r="E84" s="45"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="34"/>
+      <c r="C85" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="52"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="56"/>
-      <c r="B86" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E85" s="45"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="35"/>
       <c r="C86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="53"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="54" t="s">
+      <c r="D86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="46"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="E87" s="43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="56"/>
-      <c r="B88" s="3" t="s">
+    <row r="88" spans="2:5">
+      <c r="B88" s="35"/>
+      <c r="C88" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D88" s="50"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="11" t="s">
+      <c r="E88" s="43"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D89" s="50"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="54" t="s">
+      <c r="E89" s="43"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="49" t="s">
+      <c r="E90" s="42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="55"/>
-      <c r="B91" s="3" t="s">
+    <row r="91" spans="2:5">
+      <c r="B91" s="34"/>
+      <c r="C91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="49"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="55"/>
-      <c r="B92" s="3" t="s">
+      <c r="E91" s="42"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="34"/>
+      <c r="C92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="49"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="55"/>
-      <c r="B93" s="3" t="s">
+      <c r="E92" s="42"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="34"/>
+      <c r="C93" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D93" s="49"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="55"/>
-      <c r="B94" s="3" t="s">
+      <c r="E93" s="42"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="34"/>
+      <c r="C94" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="49"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="56"/>
-      <c r="B95" s="3" t="s">
+      <c r="E94" s="42"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="35"/>
+      <c r="C95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="49"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="54" t="s">
+      <c r="E95" s="42"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="E96" s="43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="55"/>
-      <c r="B97" s="3" t="s">
+    <row r="97" spans="2:6">
+      <c r="B97" s="34"/>
+      <c r="C97" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D97" s="50"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="55"/>
-      <c r="B98" s="3" t="s">
+      <c r="E97" s="43"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="34"/>
+      <c r="C98" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="50"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="56"/>
-      <c r="B99" s="3" t="s">
+      <c r="E98" s="43"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="35"/>
+      <c r="C99" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D99" s="50"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="54" t="s">
+      <c r="E99" s="43"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="C100" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="D100" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="E100" s="42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="55"/>
-      <c r="B101" s="3" t="s">
+    <row r="101" spans="2:6">
+      <c r="B101" s="34"/>
+      <c r="C101" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D101" s="49"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="55"/>
-      <c r="B102" s="3" t="s">
+      <c r="E101" s="42"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="34"/>
+      <c r="C102" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="49"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="56"/>
-      <c r="B103" s="3" t="s">
+      <c r="E102" s="42"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="35"/>
+      <c r="C103" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D103" s="49"/>
-    </row>
-    <row r="104" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A104" s="10" t="s">
+      <c r="E103" s="42"/>
+    </row>
+    <row r="104" spans="2:6" ht="11.25" customHeight="1">
+      <c r="B104" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D104" s="45" t="s">
+      <c r="E104" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E104" s="48" t="s">
+      <c r="F104" s="41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="54" t="s">
+    <row r="105" spans="2:6">
+      <c r="B105" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="C105" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="D105" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D105" s="46"/>
-      <c r="E105" s="48"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="55"/>
-      <c r="B106" s="12" t="s">
+      <c r="E105" s="39"/>
+      <c r="F105" s="41"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="34"/>
+      <c r="C106" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="D106" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D106" s="46"/>
-      <c r="E106" s="48"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="55"/>
-      <c r="B107" s="12" t="s">
+      <c r="E106" s="39"/>
+      <c r="F106" s="41"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="34"/>
+      <c r="C107" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="D107" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D107" s="46"/>
-      <c r="E107" s="48"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="55"/>
-      <c r="B108" s="12" t="s">
+      <c r="E107" s="39"/>
+      <c r="F107" s="41"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="34"/>
+      <c r="C108" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="D108" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D108" s="46"/>
-      <c r="E108" s="48"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="55"/>
-      <c r="B109" s="3" t="s">
+      <c r="E108" s="39"/>
+      <c r="F108" s="41"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="34"/>
+      <c r="C109" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D109" s="46"/>
-      <c r="E109" s="48"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="56"/>
-      <c r="B110" s="3" t="s">
+      <c r="E109" s="39"/>
+      <c r="F109" s="41"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="35"/>
+      <c r="C110" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D110" s="46"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="10" t="s">
+      <c r="E110" s="39"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D111" s="47"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="57" t="s">
+      <c r="E111" s="40"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D112" s="57" t="s">
+      <c r="E112" s="30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="59"/>
-      <c r="B113" s="3" t="s">
+    <row r="113" spans="2:5">
+      <c r="B113" s="32"/>
+      <c r="C113" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="58"/>
-    </row>
-    <row r="114" spans="1:4" ht="33.75">
-      <c r="A114" s="6" t="s">
+      <c r="E113" s="31"/>
+    </row>
+    <row r="114" spans="2:5" ht="33.75">
+      <c r="B114" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="59"/>
-    </row>
-    <row r="115" spans="1:4" ht="45">
-      <c r="A115" s="7" t="s">
+      <c r="D114" s="3"/>
+      <c r="E114" s="32"/>
+    </row>
+    <row r="115" spans="2:5" ht="45">
+      <c r="B115" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="12"/>
+      <c r="D115" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D104:D111"/>
-    <mergeCell ref="E104:E109"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="D73:D78"/>
-    <mergeCell ref="D79:D86"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="D90:D95"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A90:A95"/>
+  <mergeCells count="48">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D18"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E8:E18"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E104:E111"/>
+    <mergeCell ref="F104:F109"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="E73:E78"/>
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="E90:E95"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="B112:B113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
+++ b/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="153">
   <si>
     <t>主模块</t>
   </si>
@@ -499,6 +499,10 @@
   </si>
   <si>
     <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,29 +775,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,51 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1161,22 +1165,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72.75" customHeight="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="12" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="12" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1194,10 +1201,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="12" thickBot="1">
-      <c r="A4" s="21">
+      <c r="A4" s="30">
         <v>101</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1206,7 +1213,7 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="40" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1214,52 +1221,52 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="12" thickBot="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12" thickBot="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12" thickBot="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="21">
+      <c r="A8" s="30">
         <v>102</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1268,7 +1275,7 @@
       <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="41" t="s">
         <v>93</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1276,52 +1283,52 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12" thickBot="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12" thickBot="1">
-      <c r="A12" s="21">
+      <c r="A12" s="30">
         <v>103</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1330,100 +1337,100 @@
       <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" thickBot="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12" thickBot="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12" thickBot="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12" thickBot="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12" thickBot="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="21">
+      <c r="A19" s="30">
         <v>104</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1432,7 +1439,7 @@
       <c r="D19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1440,15 +1447,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="12" thickBot="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="5" t="s">
         <v>113</v>
       </c>
@@ -1466,17 +1473,17 @@
       <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="5" t="s">
         <v>114</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="12" thickBot="1">
-      <c r="A22" s="21">
+      <c r="A22" s="30">
         <v>106</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1485,7 +1492,7 @@
       <c r="D22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="42" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -1493,80 +1500,80 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="28"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12" thickBot="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12" thickBot="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12" thickBot="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12" thickBot="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="21">
+      <c r="A28" s="30">
         <v>107</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1575,7 +1582,7 @@
       <c r="D28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -1583,52 +1590,52 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="12" thickBot="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12" thickBot="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12" thickBot="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="32"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="21">
+      <c r="A32" s="30">
         <v>108</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -1637,7 +1644,7 @@
       <c r="D32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -1645,29 +1652,29 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="12" thickBot="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="5" t="s">
         <v>129</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="12" thickBot="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="5" t="s">
         <v>127</v>
       </c>
@@ -1693,10 +1700,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="21">
+      <c r="A36" s="30">
         <v>110</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="30" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="18" t="s">
@@ -1705,7 +1712,7 @@
       <c r="D36" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="40" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
@@ -1713,52 +1720,52 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12" thickBot="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="34"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12" thickBot="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="34"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="12" thickBot="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="34"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A40" s="24">
+      <c r="A40" s="33">
         <v>112</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1767,7 +1774,7 @@
       <c r="D40" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="39" t="s">
         <v>91</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -1775,52 +1782,52 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12" thickBot="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="33"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12" thickBot="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="33"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12" thickBot="1">
-      <c r="A44" s="19">
+      <c r="A44" s="36">
         <v>113</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="36" t="s">
         <v>82</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1829,7 +1836,7 @@
       <c r="D44" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="25" t="s">
         <v>90</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -1837,39 +1844,39 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="6" t="s">
         <v>143</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="32"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="5" t="s">
         <v>148</v>
       </c>
@@ -1898,16 +1905,16 @@
       <c r="A49" s="17">
         <v>114</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="19" t="s">
         <v>90</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -1915,139 +1922,154 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="41"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E8:E18"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B1:E1"/>
@@ -2064,21 +2086,6 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="E36:E39"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E8:E18"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
+++ b/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="155">
   <si>
     <t>主模块</t>
   </si>
@@ -503,6 +503,14 @@
   </si>
   <si>
     <t>模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +801,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,56 +846,23 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1160,27 +1171,31 @@
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="3.875" style="1" customWidth="1"/>
+    <col min="10" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72.75" customHeight="1">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:17" ht="72.75" customHeight="1">
+      <c r="B1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="12" thickBot="1">
-      <c r="B2" s="28" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:17" ht="12" thickBot="1">
+      <c r="B2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:6" ht="12" thickBot="1">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="12" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>152</v>
       </c>
@@ -1199,12 +1214,15 @@
       <c r="F3" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="12" thickBot="1">
-      <c r="A4" s="30">
+      <c r="G3" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="12" thickBot="1">
+      <c r="A4" s="28">
         <v>101</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1213,60 +1231,88 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="12" thickBot="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="G4" s="1" t="str">
+        <f>F4&amp;Q4</f>
+        <v>Customer.aspx</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12" thickBot="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="12" thickBot="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ref="G5:G49" si="0">F5&amp;Q5</f>
+        <v>CustContact.aspx</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="12" thickBot="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="12" thickBot="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CustomerPtFollow.aspx</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="12" thickBot="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="30">
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AreaSetting.aspx</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A8" s="28">
         <v>102</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1275,60 +1321,88 @@
       <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="34" t="s">
         <v>93</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PolicyInput.aspx</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="12" thickBot="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PolicyAlter.aspx</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12" thickBot="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="12" thickBot="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PolicyCheck.aspx</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12" thickBot="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="12" thickBot="1">
-      <c r="A12" s="30">
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PolicySearch.aspx</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12" thickBot="1">
+      <c r="A12" s="28">
         <v>103</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1337,100 +1411,149 @@
       <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="12" thickBot="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AskPriceInput.aspx</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12" thickBot="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="12" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AskPriceCheck.aspx</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12" thickBot="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="12" thickBot="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AskPriceSearch.aspx</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12" thickBot="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="12" thickBot="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CarPolicyInput.aspx</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="12" thickBot="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="12" thickBot="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CarPolicyAlter.aspx</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="12" thickBot="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="12" thickBot="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CarPolicyCheck.aspx</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="12" thickBot="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="30">
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CarPolicySearch.aspx</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A19" s="28">
         <v>104</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1439,28 +1562,42 @@
       <c r="D19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="12" thickBot="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NotifyClaim.aspx</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="12" thickBot="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="12" thickBot="1">
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NotifyClaimDoc.aspx</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12" thickBot="1">
       <c r="A21" s="16">
         <v>105</v>
       </c>
@@ -1473,17 +1610,24 @@
       <c r="D21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="12" thickBot="1">
-      <c r="A22" s="30">
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BusinessConsult.aspx</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="Q21" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="12" thickBot="1">
+      <c r="A22" s="28">
         <v>106</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1492,88 +1636,130 @@
       <c r="D22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FeeNotice.aspx</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="23.25" thickBot="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="12" thickBot="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FeeCustomer.aspx</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="12" thickBot="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="12" thickBot="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FeePayin.aspx</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="12" thickBot="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="12" thickBot="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FeePayinInvoice.aspx</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12" thickBot="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="12" thickBot="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FeeProcess.aspx</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12" thickBot="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="44"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="30">
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SheetcolumnManager.aspx</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A28" s="28">
         <v>107</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1582,60 +1768,88 @@
       <c r="D28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="12" thickBot="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Carrier.aspx</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="12" thickBot="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="26"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="12" thickBot="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Branch.aspx</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="12" thickBot="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="12" thickBot="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ProductType.aspx</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12" thickBot="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="30">
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TargetType.aspx</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A32" s="28">
         <v>108</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -1644,42 +1858,63 @@
       <c r="D32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="35" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="12" thickBot="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>UserManager.aspx</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12" thickBot="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="5" t="s">
         <v>129</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="12" thickBot="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RoleManager.aspx</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="12" thickBot="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="12" thickBot="1">
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DepartmentManager.aspx</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="12" thickBot="1">
       <c r="A35" s="15">
         <v>109</v>
       </c>
@@ -1698,12 +1933,19 @@
       <c r="F35" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="30">
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>InfoCenter.aspx</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A36" s="28">
         <v>110</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="18" t="s">
@@ -1712,60 +1954,88 @@
       <c r="D36" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="12" thickBot="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeManager.aspx</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="12" thickBot="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="12" thickBot="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SystemOption.aspx</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="12" thickBot="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="40"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="12" thickBot="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ChangePass.aspx</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="12" thickBot="1">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="40"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A40" s="33">
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Systemlog.aspx</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="23.25" thickBot="1">
+      <c r="A40" s="31">
         <v>112</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1774,60 +2044,88 @@
       <c r="D40" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="43" t="s">
         <v>91</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="12" thickBot="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AchievementReport.aspx</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="12" thickBot="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="12" thickBot="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BalanceReport.aspx</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="12" thickBot="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="39"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GeneralReport.aspx</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="23.25" thickBot="1">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="39"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="12" thickBot="1">
-      <c r="A44" s="36">
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NotifyClaimReport.aspx</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="12" thickBot="1">
+      <c r="A44" s="25">
         <v>113</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1836,52 +2134,80 @@
       <c r="D44" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="37" t="s">
         <v>90</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SignPremiumBudget.aspx</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="26"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>IncomePremiumBudget.aspx</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="23.25" thickBot="1">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="6" t="s">
         <v>143</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SignPremiumBudgetAnalyse.aspx</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="23.25" thickBot="1">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="12" thickBot="1">
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>IncomePremiumBudgetAnalyse.aspx</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="12" thickBot="1">
       <c r="A48" s="17">
         <v>111</v>
       </c>
@@ -1900,8 +2226,15 @@
       <c r="F48" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="23.25" thickBot="1">
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GeneralSearch.aspx</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="23.25" thickBot="1">
       <c r="A49" s="17">
         <v>114</v>
       </c>
@@ -1920,92 +2253,99 @@
       <c r="F49" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AlertService.aspx</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:17" ht="14.25" customHeight="1">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:17" ht="14.25" customHeight="1">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:17" ht="15" customHeight="1">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:17">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:17">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:17">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:17">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:17">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:17">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:17">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:17">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:17">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:17">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:17">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -2055,21 +2395,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E8:E18"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E19:E21"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B1:E1"/>
@@ -2086,6 +2411,21 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="E36:E39"/>
     <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E8:E18"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
+++ b/trunk/SHEIB/Docs/需求开发/业务功能 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
   <si>
     <t>主模块</t>
   </si>
@@ -109,14 +109,6 @@
   </si>
   <si>
     <t>设置系统的一些默认参数</t>
-  </si>
-  <si>
-    <t>李明成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2、系统模块大体分工</t>
@@ -132,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>于英俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务跟进</t>
   </si>
   <si>
@@ -296,23 +284,6 @@
   </si>
   <si>
     <t>续保提醒、客户收费提醒、生日祝福等提醒功能</t>
-  </si>
-  <si>
-    <t>于英俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨成春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李明成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">李明成
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代码管理</t>
@@ -575,7 +546,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,25 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF79646"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,10 +688,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -762,15 +715,9 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -783,9 +730,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -801,6 +745,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,41 +775,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1170,34 +1087,31 @@
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="3.875" style="1" customWidth="1"/>
-    <col min="10" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="3.875" style="1" customWidth="1"/>
+    <col min="9" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="72.75" customHeight="1">
-      <c r="B1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:17" ht="12" thickBot="1">
-      <c r="B2" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" ht="12" thickBot="1">
+    <row r="1" spans="1:16" ht="72.75" customHeight="1">
+      <c r="B1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:16" ht="12" thickBot="1">
+      <c r="B2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:16" ht="12" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -1209,21 +1123,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="12" thickBot="1">
-      <c r="A4" s="28">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12" thickBot="1">
+      <c r="A4" s="26">
         <v>101</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
+      <c r="B4" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -1231,695 +1142,652 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f>F4&amp;Q4</f>
+      <c r="E4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>E4&amp;P4</f>
         <v>Customer.aspx</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="12" thickBot="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="P4" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12" thickBot="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G49" si="0">F5&amp;Q5</f>
+      <c r="E5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" ref="F5:F49" si="0">E5&amp;P5</f>
         <v>CustContact.aspx</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="12" thickBot="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="P5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12" thickBot="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="1" t="str">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CustomerPtFollow.aspx</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="12" thickBot="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="P6" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="12" thickBot="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="1" t="str">
+      <c r="E7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>AreaSetting.aspx</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="28">
+      <c r="P7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A8" s="26">
         <v>102</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PolicyInput.aspx</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PolicyAlter.aspx</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12" thickBot="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PolicyInput.aspx</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" thickBot="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PolicyAlter.aspx</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="12" thickBot="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="1" t="str">
+      <c r="E10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PolicyCheck.aspx</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="12" thickBot="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="P10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12" thickBot="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="1" t="str">
+      <c r="E11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PolicySearch.aspx</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="12" thickBot="1">
-      <c r="A12" s="28">
+      <c r="P11" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12" thickBot="1">
+      <c r="A12" s="26">
         <v>103</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AskPriceInput.aspx</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="12" thickBot="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AskPriceCheck.aspx</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="12" thickBot="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AskPriceInput.aspx</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="12" thickBot="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>AskPriceCheck.aspx</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="12" thickBot="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="1" t="str">
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>AskPriceSearch.aspx</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="12" thickBot="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="P14" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="12" thickBot="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="1" t="str">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CarPolicyInput.aspx</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="12" thickBot="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="P15" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12" thickBot="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="1" t="str">
+      <c r="E16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CarPolicyAlter.aspx</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="12" thickBot="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+      <c r="P16" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="12" thickBot="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="1" t="str">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CarPolicyCheck.aspx</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="12" thickBot="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="P17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="12" thickBot="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="1" t="str">
+      <c r="E18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CarPolicySearch.aspx</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="28">
+      <c r="P18" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A19" s="26">
         <v>104</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NotifyClaim.aspx</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12" thickBot="1">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NotifyClaimDoc.aspx</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" thickBot="1">
+      <c r="A21" s="14">
+        <v>105</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>NotifyClaim.aspx</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="12" thickBot="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BusinessConsult.aspx</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="P21" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12" thickBot="1">
+      <c r="A22" s="26">
+        <v>106</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>NotifyClaimDoc.aspx</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="12" thickBot="1">
-      <c r="A21" s="16">
-        <v>105</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BusinessConsult.aspx</v>
-      </c>
-      <c r="H21" s="45"/>
-      <c r="Q21" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="12" thickBot="1">
-      <c r="A22" s="28">
-        <v>106</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="1" t="str">
+        <v>56</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FeeNotice.aspx</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="P22" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="23.25" thickBot="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="1" t="str">
+        <v>57</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FeeCustomer.aspx</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="12" thickBot="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="P23" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12" thickBot="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FeePayin.aspx</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12" thickBot="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FeePayinInvoice.aspx</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12" thickBot="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>FeePayin.aspx</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="12" thickBot="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>FeePayinInvoice.aspx</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="12" thickBot="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="1" t="str">
+      <c r="E26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FeeProcess.aspx</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="12" thickBot="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="P26" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12" thickBot="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="1" t="str">
+      <c r="E27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SheetcolumnManager.aspx</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="28">
+      <c r="P27" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A28" s="26">
         <v>107</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>66</v>
+      <c r="B28" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Carrier.aspx</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="12" thickBot="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+      <c r="P28" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="1" t="str">
+        <v>65</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Branch.aspx</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="12" thickBot="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+      <c r="P29" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12" thickBot="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="1" t="str">
+      <c r="E30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ProductType.aspx</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="12" thickBot="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="P30" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12" thickBot="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="1" t="str">
+      <c r="E31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TargetType.aspx</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="28">
+      <c r="P31" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A32" s="26">
         <v>108</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>69</v>
+      <c r="B32" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>UserManager.aspx</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="12" thickBot="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+      <c r="P32" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12" thickBot="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="1" t="str">
+        <v>123</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>RoleManager.aspx</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="12" thickBot="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
+      <c r="P33" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12" thickBot="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="1" t="str">
+        <v>121</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>DepartmentManager.aspx</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="12" thickBot="1">
-      <c r="A35" s="15">
+      <c r="P34" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12" thickBot="1">
+      <c r="A35" s="13">
         <v>109</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>27</v>
@@ -1927,477 +1795,427 @@
       <c r="D35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="1" t="str">
+      <c r="E35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>InfoCenter.aspx</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="28">
+      <c r="P35" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A36" s="26">
         <v>110</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>94</v>
+      <c r="B36" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="1" t="str">
+        <v>88</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CodeManager.aspx</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="12" thickBot="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="13" t="s">
+      <c r="P36" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12" thickBot="1">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="1" t="str">
+      <c r="E37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SystemOption.aspx</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="12" thickBot="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="P37" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="12" thickBot="1">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="1" t="str">
+        <v>128</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ChangePass.aspx</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="12" thickBot="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+      <c r="P38" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="12" thickBot="1">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="1" t="str">
+        <v>72</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Systemlog.aspx</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A40" s="31">
+      <c r="P39" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="23.25" thickBot="1">
+      <c r="A40" s="29">
         <v>112</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>76</v>
+      <c r="B40" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="1" t="str">
+        <v>74</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>AchievementReport.aspx</v>
       </c>
-      <c r="Q40" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="12" thickBot="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
+      <c r="P40" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12" thickBot="1">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BalanceReport.aspx</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12" thickBot="1">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GeneralReport.aspx</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="23.25" thickBot="1">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NotifyClaimReport.aspx</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12" thickBot="1">
+      <c r="A44" s="23">
+        <v>113</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BalanceReport.aspx</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="12" thickBot="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="5" t="s">
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SignPremiumBudget.aspx</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>GeneralReport.aspx</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>IncomePremiumBudget.aspx</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="23.25" thickBot="1">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SignPremiumBudgetAnalyse.aspx</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="23.25" thickBot="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>NotifyClaimReport.aspx</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="12" thickBot="1">
-      <c r="A44" s="25">
-        <v>113</v>
-      </c>
-      <c r="B44" s="25" t="s">
+      <c r="E47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>IncomePremiumBudgetAnalyse.aspx</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="12" thickBot="1">
+      <c r="A48" s="15">
+        <v>111</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C48" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SignPremiumBudget.aspx</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>IncomePremiumBudget.aspx</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="6" t="s">
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GeneralSearch.aspx</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="23.25" thickBot="1">
+      <c r="A49" s="15">
+        <v>114</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SignPremiumBudgetAnalyse.aspx</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>IncomePremiumBudgetAnalyse.aspx</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="12" thickBot="1">
-      <c r="A48" s="17">
-        <v>111</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>GeneralSearch.aspx</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A49" s="17">
-        <v>114</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="1" t="str">
+      <c r="F49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>AlertService.aspx</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-    </row>
-    <row r="51" spans="1:17" ht="14.25" customHeight="1">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-    </row>
-    <row r="52" spans="1:17" ht="14.25" customHeight="1">
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-    </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
+      <c r="P49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:16" ht="14.25" customHeight="1">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:16" ht="14.25" customHeight="1">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="22">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B36:B39"/>
@@ -2408,18 +2226,10 @@
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B22:B27"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E8:E18"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E28:E31"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A31"/>
